--- a/to infinity and beyond.xlsx
+++ b/to infinity and beyond.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
   <si>
     <t>Object</t>
   </si>
@@ -142,13 +142,88 @@
   </si>
   <si>
     <t>door</t>
+  </si>
+  <si>
+    <t>sala de estar</t>
+  </si>
+  <si>
+    <t>Living room</t>
+  </si>
+  <si>
+    <t>Palavras</t>
+  </si>
+  <si>
+    <t>Shortcut</t>
+  </si>
+  <si>
+    <t>Atalho</t>
+  </si>
+  <si>
+    <t>you are a human being</t>
+  </si>
+  <si>
+    <t>Você é um ser humano</t>
+  </si>
+  <si>
+    <t>you`re in the right place</t>
+  </si>
+  <si>
+    <t>Você está no lugar certo</t>
+  </si>
+  <si>
+    <t>every single day</t>
+  </si>
+  <si>
+    <t>todo santo dia</t>
+  </si>
+  <si>
+    <t>every freaking day</t>
+  </si>
+  <si>
+    <t>cada maldito dia</t>
+  </si>
+  <si>
+    <t>Eu tenho uma pergunta para você</t>
+  </si>
+  <si>
+    <t>I have a question for you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quanto tempo vc leva pra </t>
+  </si>
+  <si>
+    <t>ficar pronta(o)?</t>
+  </si>
+  <si>
+    <t>How long does it take you</t>
+  </si>
+  <si>
+    <t>to get ready?</t>
+  </si>
+  <si>
+    <t>It takes me 20 minutes</t>
+  </si>
+  <si>
+    <t>Eu levo 20 minutos.</t>
+  </si>
+  <si>
+    <t>para chegar em casa?</t>
+  </si>
+  <si>
+    <t>Eu levo 15 minutos.</t>
+  </si>
+  <si>
+    <t>to get to home?</t>
+  </si>
+  <si>
+    <t>It takes me 15 minutes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,8 +250,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="6" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,8 +282,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -204,16 +315,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,125 +654,204 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="42.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.42578125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="1.5703125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="39.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="47.42578125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:5" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D9" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D10" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D11" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D12" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D13" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D14" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -641,7 +859,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -649,7 +867,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -657,7 +875,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -665,7 +883,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -673,7 +891,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
@@ -681,7 +899,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
@@ -689,7 +907,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
@@ -697,7 +915,30 @@
         <v>40</v>
       </c>
     </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
